--- a/test.xlsx
+++ b/test.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20385"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{794BA403-983D-4C08-BE50-94E2E33C7107}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B913C859-749E-4A72-B138-7B7C1EF46C2B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="78">
   <si>
     <t>chào</t>
   </si>
@@ -242,9 +242,6 @@
   </si>
   <si>
     <t>thư</t>
-  </si>
-  <si>
-    <t>điện tử</t>
   </si>
   <si>
     <t>mở tra cứu</t>
@@ -584,9 +581,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q9" sqref="Q9"/>
+      <selection pane="bottomLeft" activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -811,7 +808,7 @@
         <v>55</v>
       </c>
       <c r="O4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q4" t="s">
         <v>68</v>
@@ -840,13 +837,13 @@
         <v>73</v>
       </c>
       <c r="M5" t="s">
+        <v>74</v>
+      </c>
+      <c r="N5" t="s">
         <v>75</v>
       </c>
-      <c r="N5" t="s">
-        <v>76</v>
-      </c>
       <c r="Q5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
@@ -864,9 +861,6 @@
       </c>
       <c r="G6" t="s">
         <v>32</v>
-      </c>
-      <c r="L6" t="s">
-        <v>74</v>
       </c>
       <c r="M6" t="s">
         <v>50</v>
